--- a/data/Data Recommendation Candidate.xlsx
+++ b/data/Data Recommendation Candidate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.Programming\.UploadGithub\candidate-recommendation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Magang\Candidate Recommendation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587A0F0E-1EB9-4539-B366-C8B819F69D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624C5FD0-7BC0-466D-84C6-A6882178B90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="794">
   <si>
     <t>No</t>
   </si>
@@ -2420,6 +2420,9 @@
   </si>
   <si>
     <t>Universitas Abdurachman Saleh Situbondo</t>
+  </si>
+  <si>
+    <t>MARITAL STATUS</t>
   </si>
 </sst>
 </file>
@@ -2840,8 +2843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2853,7 +2856,7 @@
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="75.42578125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="39.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
     <col min="11" max="11" width="12.140625" customWidth="1"/>
@@ -2894,7 +2897,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>793</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -37236,7 +37239,7 @@
   <customSheetViews>
     <customSheetView guid="{F23E0D1E-5E8B-40EC-94AC-CF65159BF03C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:N146" xr:uid="{1F6BE65A-0F87-4C49-B1BD-0C2CE9DF6B40}">
+      <autoFilter ref="A1:N146" xr:uid="{E6C0AC9B-FA8F-44AD-B620-9604BC77EBDA}">
         <filterColumn colId="13">
           <filters blank="1">
             <filter val="Analis Hukum Perusahaan"/>
